--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_8_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_8_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>506206.3788462266</v>
+        <v>504000.2854397887</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7094780.682604731</v>
+        <v>7094780.682604729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>260.6439705648372</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>414.0301000117425</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>161.4125322208646</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>69.92680236866741</v>
       </c>
       <c r="S2" t="n">
-        <v>180.0198424776874</v>
+        <v>180.0198424776876</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>83.71840457412404</v>
       </c>
     </row>
     <row r="3">
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.10214951440873</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -756,7 +756,7 @@
         <v>105.6591799828218</v>
       </c>
       <c r="I3" t="n">
-        <v>65.95263903154847</v>
+        <v>65.95263903154867</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>57.88099638015503</v>
+        <v>57.88099638015536</v>
       </c>
       <c r="S3" t="n">
-        <v>159.0353604252219</v>
+        <v>159.035360425222</v>
       </c>
       <c r="T3" t="n">
         <v>197.4201388450818</v>
@@ -801,10 +801,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>118.5795812806732</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -826,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>47.6824449544654</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>52.99928112255622</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,22 +859,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.3601878273906</v>
+        <v>38.36018782739097</v>
       </c>
       <c r="R4" t="n">
-        <v>151.6253882365109</v>
+        <v>151.6253882365111</v>
       </c>
       <c r="S4" t="n">
-        <v>214.0680412192119</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2878914634775</v>
       </c>
       <c r="V4" t="n">
-        <v>27.4805282983603</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,16 +902,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>364.6705553327768</v>
+        <v>205.3026358375773</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>94.32208489366903</v>
       </c>
       <c r="C7" t="n">
-        <v>100.5088970641055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,16 +1133,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>193.9168027940584</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>158.9420029854263</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1306,13 +1306,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>122.9755501377538</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>245.9764846901596</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,16 +1534,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>56.9728505726337</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>50.18870648718647</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1661,7 +1661,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9951719589029</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>94.31414135199323</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>32.8588137376057</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890389</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1895,7 +1895,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>77.31354443380393</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983813</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>133.8232400950949</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2087,10 +2087,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722629</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>14.73324894936824</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>206.190078919269</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>166.0258082590283</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>80.88401014030342</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,16 +2524,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>59.90320919298799</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,19 +2719,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>67.33742371513254</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>28.20584125154488</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>74.7576914549236</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>126.5660981224325</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>67.41386939711253</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>173.7172817388083</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3275,7 +3275,7 @@
         <v>346.4349537862159</v>
       </c>
       <c r="F35" t="n">
-        <v>371.3806294556655</v>
+        <v>371.3806294556656</v>
       </c>
       <c r="G35" t="n">
         <v>375.4263093674076</v>
@@ -3284,7 +3284,7 @@
         <v>259.1123481012746</v>
       </c>
       <c r="I35" t="n">
-        <v>6.08151348688007</v>
+        <v>6.081513486880134</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>73.69234550212997</v>
+        <v>73.69234550213002</v>
       </c>
       <c r="T35" t="n">
-        <v>168.4225538535742</v>
+        <v>168.4225538535744</v>
       </c>
       <c r="U35" t="n">
-        <v>215.4997556728561</v>
+        <v>215.4997556728562</v>
       </c>
       <c r="V35" t="n">
-        <v>292.256842184089</v>
+        <v>292.2568421840891</v>
       </c>
       <c r="W35" t="n">
-        <v>313.7455524313671</v>
+        <v>313.7455524313672</v>
       </c>
       <c r="X35" t="n">
-        <v>334.2356843924231</v>
+        <v>334.2356843924232</v>
       </c>
       <c r="Y35" t="n">
         <v>350.7425223700077</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>144.3365638958914</v>
+        <v>144.3365638958915</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>131.751404812582</v>
       </c>
       <c r="D37" t="n">
-        <v>82.12429140109326</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>110.9385463605234</v>
       </c>
       <c r="F37" t="n">
         <v>109.9256317368854</v>
       </c>
       <c r="G37" t="n">
-        <v>130.5303919729823</v>
+        <v>23.40146858497026</v>
       </c>
       <c r="H37" t="n">
-        <v>109.2595986282749</v>
+        <v>109.259598628275</v>
       </c>
       <c r="I37" t="n">
-        <v>60.85700412379222</v>
+        <v>60.85700412379227</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>53.43673638400143</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>154.273609045396</v>
+        <v>154.2736090453961</v>
       </c>
       <c r="T37" t="n">
-        <v>184.0535329901233</v>
+        <v>184.0535329901234</v>
       </c>
       <c r="U37" t="n">
-        <v>250.716421919567</v>
+        <v>250.7164219195671</v>
       </c>
       <c r="V37" t="n">
-        <v>216.6422270377821</v>
+        <v>216.6422270377822</v>
       </c>
       <c r="W37" t="n">
-        <v>251.0275820505451</v>
+        <v>251.0275820505452</v>
       </c>
       <c r="X37" t="n">
         <v>190.2142391029913</v>
       </c>
       <c r="Y37" t="n">
-        <v>183.0892370660489</v>
+        <v>183.089237066049</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>347.2384253774348</v>
+        <v>347.2384253774347</v>
       </c>
       <c r="C38" t="n">
-        <v>329.7774754849618</v>
+        <v>329.7774754849617</v>
       </c>
       <c r="D38" t="n">
-        <v>319.1876253346372</v>
+        <v>319.1876253346371</v>
       </c>
       <c r="E38" t="n">
-        <v>346.434953786216</v>
+        <v>346.4349537862159</v>
       </c>
       <c r="F38" t="n">
-        <v>371.3806294556657</v>
+        <v>371.3806294556656</v>
       </c>
       <c r="G38" t="n">
-        <v>375.4263093674077</v>
+        <v>375.4263093674076</v>
       </c>
       <c r="H38" t="n">
-        <v>259.1123481012747</v>
+        <v>259.1123481012746</v>
       </c>
       <c r="I38" t="n">
-        <v>6.081513486880162</v>
+        <v>6.081513486880105</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>73.69234550213005</v>
+        <v>73.69234550212997</v>
       </c>
       <c r="T38" t="n">
-        <v>168.4225538535744</v>
+        <v>168.4225538535743</v>
       </c>
       <c r="U38" t="n">
-        <v>215.4997556728562</v>
+        <v>215.4997556728561</v>
       </c>
       <c r="V38" t="n">
         <v>292.2568421840891</v>
@@ -3566,10 +3566,10 @@
         <v>313.7455524313672</v>
       </c>
       <c r="X38" t="n">
-        <v>334.2356843924233</v>
+        <v>334.2356843924232</v>
       </c>
       <c r="Y38" t="n">
-        <v>350.7425223700078</v>
+        <v>350.7425223700077</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247741</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,16 +3658,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>144.3365638958915</v>
+        <v>41.43348325238951</v>
       </c>
       <c r="C40" t="n">
-        <v>131.7514048125821</v>
+        <v>131.751404812582</v>
       </c>
       <c r="D40" t="n">
-        <v>113.1200567321666</v>
+        <v>113.1200567321665</v>
       </c>
       <c r="E40" t="n">
-        <v>110.9385463605234</v>
+        <v>110.9385463605233</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>130.5303919729824</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>109.2595986282749</v>
       </c>
       <c r="I40" t="n">
-        <v>6.356517984771193</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>53.43673638400155</v>
+        <v>53.43673638400149</v>
       </c>
       <c r="S40" t="n">
         <v>154.2736090453961</v>
@@ -3715,7 +3715,7 @@
         <v>184.0535329901234</v>
       </c>
       <c r="U40" t="n">
-        <v>250.7164219195671</v>
+        <v>250.716421919567</v>
       </c>
       <c r="V40" t="n">
         <v>216.6422270377822</v>
@@ -3724,7 +3724,7 @@
         <v>251.0275820505452</v>
       </c>
       <c r="X40" t="n">
-        <v>190.2142391029914</v>
+        <v>190.2142391029913</v>
       </c>
       <c r="Y40" t="n">
         <v>183.089237066049</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>347.2384253774348</v>
+        <v>347.2384253774347</v>
       </c>
       <c r="C41" t="n">
-        <v>329.7774754849618</v>
+        <v>329.7774754849617</v>
       </c>
       <c r="D41" t="n">
-        <v>319.1876253346372</v>
+        <v>319.1876253346371</v>
       </c>
       <c r="E41" t="n">
-        <v>346.434953786216</v>
+        <v>346.4349537862159</v>
       </c>
       <c r="F41" t="n">
-        <v>371.3806294556657</v>
+        <v>371.3806294556655</v>
       </c>
       <c r="G41" t="n">
-        <v>375.4263093674077</v>
+        <v>375.4263093674076</v>
       </c>
       <c r="H41" t="n">
-        <v>259.1123481012747</v>
+        <v>259.1123481012746</v>
       </c>
       <c r="I41" t="n">
-        <v>6.081513486880183</v>
+        <v>6.08151348688007</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>73.69234550213008</v>
+        <v>73.69234550212995</v>
       </c>
       <c r="T41" t="n">
-        <v>168.4225538535744</v>
+        <v>168.4225538535742</v>
       </c>
       <c r="U41" t="n">
-        <v>215.4997556728562</v>
+        <v>215.4997556728561</v>
       </c>
       <c r="V41" t="n">
-        <v>292.2568421840891</v>
+        <v>292.256842184089</v>
       </c>
       <c r="W41" t="n">
-        <v>313.7455524313672</v>
+        <v>313.7455524313671</v>
       </c>
       <c r="X41" t="n">
-        <v>334.2356843924233</v>
+        <v>334.2356843924231</v>
       </c>
       <c r="Y41" t="n">
-        <v>350.7425223700078</v>
+        <v>350.7425223700077</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>144.3365638958915</v>
+        <v>144.3365638958914</v>
       </c>
       <c r="C43" t="n">
-        <v>131.7514048125821</v>
+        <v>131.7514048125819</v>
       </c>
       <c r="D43" t="n">
-        <v>47.14468565738323</v>
+        <v>113.1200567321665</v>
       </c>
       <c r="E43" t="n">
-        <v>110.9385463605234</v>
+        <v>60.80616899241321</v>
       </c>
       <c r="F43" t="n">
-        <v>109.9256317368855</v>
+        <v>109.9256317368854</v>
       </c>
       <c r="G43" t="n">
-        <v>130.5303919729825</v>
+        <v>130.5303919729823</v>
       </c>
       <c r="H43" t="n">
-        <v>109.259598628275</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>60.85700412379233</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>154.273609045396</v>
       </c>
       <c r="T43" t="n">
-        <v>184.0535329901234</v>
+        <v>184.0535329901233</v>
       </c>
       <c r="U43" t="n">
-        <v>250.7164219195671</v>
+        <v>250.716421919567</v>
       </c>
       <c r="V43" t="n">
-        <v>216.6422270377822</v>
+        <v>216.6422270377821</v>
       </c>
       <c r="W43" t="n">
-        <v>251.0275820505452</v>
+        <v>251.0275820505451</v>
       </c>
       <c r="X43" t="n">
-        <v>190.2142391029914</v>
+        <v>190.2142391029913</v>
       </c>
       <c r="Y43" t="n">
-        <v>183.089237066049</v>
+        <v>183.0892370660489</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>259.1123481012746</v>
       </c>
       <c r="I44" t="n">
-        <v>6.081513486880041</v>
+        <v>6.081513486880056</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>73.69234550212991</v>
+        <v>73.69234550212997</v>
       </c>
       <c r="T44" t="n">
         <v>168.4225538535742</v>
       </c>
       <c r="U44" t="n">
-        <v>215.4997556728561</v>
+        <v>215.4997556728569</v>
       </c>
       <c r="V44" t="n">
         <v>292.256842184089</v>
@@ -4074,7 +4074,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247741</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4138,22 +4138,22 @@
         <v>131.7514048125819</v>
       </c>
       <c r="D46" t="n">
-        <v>113.1200567321664</v>
+        <v>113.0692216007876</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>109.9256317368853</v>
+        <v>109.9256317368854</v>
       </c>
       <c r="G46" t="n">
-        <v>130.5303919729823</v>
+        <v>130.5303919729824</v>
       </c>
       <c r="H46" t="n">
-        <v>109.2595986282749</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>60.85700412379219</v>
+        <v>60.85700412379222</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>44.96317528574225</v>
+        <v>154.273609045396</v>
       </c>
       <c r="T46" t="n">
         <v>184.0535329901233</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1526.520872421232</v>
+        <v>1005.420956617972</v>
       </c>
       <c r="C2" t="n">
-        <v>1263.244134476952</v>
+        <v>636.4584396775602</v>
       </c>
       <c r="D2" t="n">
-        <v>1263.244134476952</v>
+        <v>636.4584396775602</v>
       </c>
       <c r="E2" t="n">
-        <v>877.4558818787073</v>
+        <v>636.4584396775602</v>
       </c>
       <c r="F2" t="n">
-        <v>466.4699770890998</v>
+        <v>629.5129389283568</v>
       </c>
       <c r="G2" t="n">
-        <v>48.25775485501639</v>
+        <v>211.3007166942734</v>
       </c>
       <c r="H2" t="n">
-        <v>48.25775485501639</v>
+        <v>211.3007166942734</v>
       </c>
       <c r="I2" t="n">
-        <v>48.25775485501639</v>
+        <v>48.25775485501616</v>
       </c>
       <c r="J2" t="n">
-        <v>143.3613405244786</v>
+        <v>143.3613405244778</v>
       </c>
       <c r="K2" t="n">
-        <v>406.6417666293506</v>
+        <v>406.6417666293487</v>
       </c>
       <c r="L2" t="n">
-        <v>785.5410436024647</v>
+        <v>785.5410436024608</v>
       </c>
       <c r="M2" t="n">
-        <v>1223.746040782772</v>
+        <v>1223.746040782766</v>
       </c>
       <c r="N2" t="n">
-        <v>1654.409655400863</v>
+        <v>1654.409655400856</v>
       </c>
       <c r="O2" t="n">
-        <v>2015.885456671747</v>
+        <v>2015.885456671738</v>
       </c>
       <c r="P2" t="n">
-        <v>2286.72230711068</v>
+        <v>2286.72230711067</v>
       </c>
       <c r="Q2" t="n">
-        <v>2412.887742750819</v>
+        <v>2412.887742750808</v>
       </c>
       <c r="R2" t="n">
-        <v>2412.887742750819</v>
+        <v>2342.254609045083</v>
       </c>
       <c r="S2" t="n">
-        <v>2231.049518025882</v>
+        <v>2160.416384320146</v>
       </c>
       <c r="T2" t="n">
-        <v>2231.049518025882</v>
+        <v>2160.416384320146</v>
       </c>
       <c r="U2" t="n">
-        <v>2231.049518025882</v>
+        <v>2160.416384320146</v>
       </c>
       <c r="V2" t="n">
-        <v>1899.986630682311</v>
+        <v>1829.353496976576</v>
       </c>
       <c r="W2" t="n">
-        <v>1899.986630682311</v>
+        <v>1476.584841706461</v>
       </c>
       <c r="X2" t="n">
-        <v>1526.520872421232</v>
+        <v>1476.584841706461</v>
       </c>
       <c r="Y2" t="n">
-        <v>1526.520872421232</v>
+        <v>1392.020796682094</v>
       </c>
     </row>
     <row r="3">
@@ -4383,10 +4383,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>839.8710951785473</v>
+        <v>988.8055048397986</v>
       </c>
       <c r="C3" t="n">
-        <v>665.4180658974203</v>
+        <v>814.3524755586716</v>
       </c>
       <c r="D3" t="n">
         <v>665.4180658974203</v>
@@ -4404,55 +4404,55 @@
         <v>114.8765821596108</v>
       </c>
       <c r="I3" t="n">
-        <v>48.25775485501639</v>
+        <v>48.25775485501616</v>
       </c>
       <c r="J3" t="n">
-        <v>111.2074192719586</v>
+        <v>48.25775485501616</v>
       </c>
       <c r="K3" t="n">
-        <v>345.4192653503525</v>
+        <v>282.4696009334091</v>
       </c>
       <c r="L3" t="n">
-        <v>721.750392226596</v>
+        <v>658.8007278096516</v>
       </c>
       <c r="M3" t="n">
-        <v>1017.086411664344</v>
+        <v>1017.086411664337</v>
       </c>
       <c r="N3" t="n">
-        <v>1536.932332987188</v>
+        <v>1536.93233298718</v>
       </c>
       <c r="O3" t="n">
-        <v>1946.074112602213</v>
+        <v>1946.074112602203</v>
       </c>
       <c r="P3" t="n">
-        <v>2257.443393642322</v>
+        <v>2257.443393642312</v>
       </c>
       <c r="Q3" t="n">
-        <v>2412.887742750819</v>
+        <v>2412.887742750808</v>
       </c>
       <c r="R3" t="n">
-        <v>2354.422089841572</v>
+        <v>2354.42208984156</v>
       </c>
       <c r="S3" t="n">
-        <v>2193.780311634277</v>
+        <v>2193.780311634265</v>
       </c>
       <c r="T3" t="n">
-        <v>1994.366029972578</v>
+        <v>1994.366029972566</v>
       </c>
       <c r="U3" t="n">
-        <v>1766.187661648785</v>
+        <v>1766.187661648774</v>
       </c>
       <c r="V3" t="n">
-        <v>1531.035553417042</v>
+        <v>1531.035553417031</v>
       </c>
       <c r="W3" t="n">
-        <v>1276.798196688841</v>
+        <v>1276.798196688829</v>
       </c>
       <c r="X3" t="n">
-        <v>1068.946696483308</v>
+        <v>1157.020841859867</v>
       </c>
       <c r="Y3" t="n">
-        <v>861.1863977183541</v>
+        <v>1157.020841859867</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1976.994666405896</v>
+        <v>149.9564680641289</v>
       </c>
       <c r="C4" t="n">
-        <v>1976.994666405896</v>
+        <v>149.9564680641289</v>
       </c>
       <c r="D4" t="n">
-        <v>1976.994666405896</v>
+        <v>149.9564680641289</v>
       </c>
       <c r="E4" t="n">
-        <v>1976.994666405896</v>
+        <v>149.9564680641289</v>
       </c>
       <c r="F4" t="n">
-        <v>1830.104718907986</v>
+        <v>149.9564680641289</v>
       </c>
       <c r="G4" t="n">
-        <v>1830.104718907986</v>
+        <v>149.9564680641289</v>
       </c>
       <c r="H4" t="n">
-        <v>1830.104718907986</v>
+        <v>101.7923822515376</v>
       </c>
       <c r="I4" t="n">
-        <v>1830.104718907986</v>
+        <v>101.7923822515376</v>
       </c>
       <c r="J4" t="n">
-        <v>1830.104718907986</v>
+        <v>48.25775485501616</v>
       </c>
       <c r="K4" t="n">
-        <v>1873.71839699758</v>
+        <v>91.87143294460975</v>
       </c>
       <c r="L4" t="n">
-        <v>1985.055323891404</v>
+        <v>203.2083598384336</v>
       </c>
       <c r="M4" t="n">
-        <v>2112.833625806399</v>
+        <v>330.9866617534276</v>
       </c>
       <c r="N4" t="n">
-        <v>2243.008261722256</v>
+        <v>461.1612976692837</v>
       </c>
       <c r="O4" t="n">
-        <v>2347.229311851424</v>
+        <v>565.3823477984506</v>
       </c>
       <c r="P4" t="n">
-        <v>2412.887742750819</v>
+        <v>631.0407786978457</v>
       </c>
       <c r="Q4" t="n">
-        <v>2374.140078278707</v>
+        <v>592.2931142257336</v>
       </c>
       <c r="R4" t="n">
-        <v>2220.98312046405</v>
+        <v>439.1361564110759</v>
       </c>
       <c r="S4" t="n">
-        <v>2004.752775798179</v>
+        <v>439.1361564110759</v>
       </c>
       <c r="T4" t="n">
-        <v>2004.752775798179</v>
+        <v>439.1361564110759</v>
       </c>
       <c r="U4" t="n">
-        <v>2004.752775798179</v>
+        <v>149.9564680641289</v>
       </c>
       <c r="V4" t="n">
-        <v>1976.994666405896</v>
+        <v>149.9564680641289</v>
       </c>
       <c r="W4" t="n">
-        <v>1976.994666405896</v>
+        <v>149.9564680641289</v>
       </c>
       <c r="X4" t="n">
-        <v>1976.994666405896</v>
+        <v>149.9564680641289</v>
       </c>
       <c r="Y4" t="n">
-        <v>1976.994666405896</v>
+        <v>149.9564680641289</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1584.314837422907</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="C5" t="n">
-        <v>1584.314837422907</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="D5" t="n">
-        <v>1226.049138816156</v>
+        <v>1006.477909722111</v>
       </c>
       <c r="E5" t="n">
-        <v>840.2608862179118</v>
+        <v>1006.477909722111</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748108</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X5" t="n">
-        <v>1970.914677487028</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="Y5" t="n">
-        <v>1970.914677487028</v>
+        <v>1364.743608328862</v>
       </c>
     </row>
     <row r="6">
@@ -4635,10 +4635,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4653,7 +4653,7 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4668,7 +4668,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>291.7960311703076</v>
+        <v>404.8646000824888</v>
       </c>
       <c r="C7" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="D7" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>473.4444960005474</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y7" t="n">
-        <v>473.4444960005474</v>
+        <v>500.1394333084171</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1857.168914859137</v>
+        <v>1559.428949058529</v>
       </c>
       <c r="C8" t="n">
-        <v>1857.168914859137</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D8" t="n">
-        <v>1498.903216252386</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
-        <v>1113.114963654142</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
         <v>952.5674858910851</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W8" t="n">
-        <v>2247.308246834948</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="X8" t="n">
-        <v>2247.308246834948</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="Y8" t="n">
-        <v>1857.168914859137</v>
+        <v>1559.428949058529</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4872,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4881,16 +4881,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4905,7 +4905,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>426.3476790823676</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C10" t="n">
-        <v>426.3476790823676</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D10" t="n">
-        <v>426.3476790823676</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E10" t="n">
-        <v>426.3476790823676</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F10" t="n">
-        <v>426.3476790823676</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>426.3476790823676</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>426.3476790823676</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U10" t="n">
-        <v>426.3476790823676</v>
+        <v>222.942782082032</v>
       </c>
       <c r="V10" t="n">
-        <v>426.3476790823676</v>
+        <v>222.942782082032</v>
       </c>
       <c r="W10" t="n">
-        <v>426.3476790823676</v>
+        <v>222.942782082032</v>
       </c>
       <c r="X10" t="n">
-        <v>426.3476790823676</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y10" t="n">
-        <v>426.3476790823676</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749764</v>
@@ -5024,40 +5024,40 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089263</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1803.682313196074</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M11" t="n">
-        <v>2782.232616025903</v>
+        <v>2949.638265046256</v>
       </c>
       <c r="N11" t="n">
-        <v>3329.011433084685</v>
+        <v>3496.417082105038</v>
       </c>
       <c r="O11" t="n">
-        <v>3831.983903964022</v>
+        <v>3999.389552984375</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4394.163919341553</v>
       </c>
       <c r="Q11" t="n">
         <v>4719.034655862919</v>
@@ -5066,10 +5066,10 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
         <v>4208.252829604874</v>
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
@@ -5121,10 +5121,10 @@
         <v>189.2383039390115</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5136,22 +5136,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>409.4810578558173</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="C13" t="n">
-        <v>409.4810578558177</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D13" t="n">
-        <v>409.4810578558177</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E13" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5197,13 +5197,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.670849844206</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M13" t="n">
         <v>1005.387693892251</v>
@@ -5212,37 +5212,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518528</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104702</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.51300886223</v>
+        <v>1898.795132192952</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689057</v>
+        <v>1707.109248019779</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258583</v>
+        <v>1707.109248019779</v>
       </c>
       <c r="U13" t="n">
-        <v>1402.364846140212</v>
+        <v>1418.006381145422</v>
       </c>
       <c r="V13" t="n">
-        <v>1147.680357934325</v>
+        <v>1163.321892939535</v>
       </c>
       <c r="W13" t="n">
-        <v>858.2631878973648</v>
+        <v>873.9047229025748</v>
       </c>
       <c r="X13" t="n">
-        <v>630.2736369993474</v>
+        <v>645.9151720045575</v>
       </c>
       <c r="Y13" t="n">
-        <v>409.4810578558173</v>
+        <v>425.1225928610272</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
@@ -5276,28 +5276,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5309,19 +5309,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089896</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468573</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
@@ -5358,16 +5358,16 @@
         <v>189.238303939012</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
         <v>2125.96131142685</v>
@@ -5376,7 +5376,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5385,22 +5385,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>579.0900014994927</v>
+        <v>392.5676213586405</v>
       </c>
       <c r="C16" t="n">
-        <v>410.1538185715858</v>
+        <v>392.5676213586405</v>
       </c>
       <c r="D16" t="n">
-        <v>410.1538185715858</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E16" t="n">
-        <v>410.1538185715858</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F16" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
         <v>95.56103444839442</v>
@@ -5434,10 +5434,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5449,37 +5449,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518528</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952187</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104702</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104702</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104702</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T16" t="n">
-        <v>1956.343466104702</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U16" t="n">
-        <v>1667.240599230346</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>1412.556111024459</v>
+        <v>1130.76692143715</v>
       </c>
       <c r="W16" t="n">
-        <v>1123.138940987498</v>
+        <v>841.3497514001897</v>
       </c>
       <c r="X16" t="n">
-        <v>895.1493900894807</v>
+        <v>613.3602005021706</v>
       </c>
       <c r="Y16" t="n">
-        <v>674.3568109459505</v>
+        <v>392.5676213586405</v>
       </c>
     </row>
     <row r="17">
@@ -5492,22 +5492,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
@@ -5516,10 +5516,10 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>1002.806306216376</v>
       </c>
       <c r="L17" t="n">
-        <v>1898.858917622688</v>
+        <v>1453.840519464784</v>
       </c>
       <c r="M17" t="n">
         <v>2432.390822294613</v>
@@ -5543,16 +5543,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
@@ -5592,13 +5592,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K18" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5613,7 +5613,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5622,7 +5622,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U18" t="n">
         <v>2043.809373447819</v>
@@ -5631,7 +5631,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X18" t="n">
         <v>1346.568408282342</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>675.7429179653795</v>
+        <v>492.7083461157118</v>
       </c>
       <c r="C19" t="n">
-        <v>506.8067350374723</v>
+        <v>323.7721631878048</v>
       </c>
       <c r="D19" t="n">
-        <v>506.8067350374723</v>
+        <v>173.6555237754691</v>
       </c>
       <c r="E19" t="n">
-        <v>506.8067350374723</v>
+        <v>173.6555237754691</v>
       </c>
       <c r="F19" t="n">
-        <v>506.8067350374723</v>
+        <v>173.6555237754691</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5674,7 +5674,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442062</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927023</v>
@@ -5698,25 +5698,25 @@
         <v>1956.343466104703</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T19" t="n">
-        <v>1629.482591936484</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U19" t="n">
-        <v>1629.482591936484</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V19" t="n">
-        <v>1374.798103730597</v>
+        <v>1412.55611102446</v>
       </c>
       <c r="W19" t="n">
-        <v>1085.380933693637</v>
+        <v>1123.138940987499</v>
       </c>
       <c r="X19" t="n">
-        <v>857.3913827956193</v>
+        <v>895.1493900894817</v>
       </c>
       <c r="Y19" t="n">
-        <v>857.3913827956193</v>
+        <v>674.3568109459516</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5750,19 +5750,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L20" t="n">
-        <v>1898.858917622688</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M20" t="n">
-        <v>2432.390822294613</v>
+        <v>2215.249704195856</v>
       </c>
       <c r="N20" t="n">
-        <v>2979.169639353395</v>
+        <v>2762.028521254639</v>
       </c>
       <c r="O20" t="n">
         <v>3482.142110232732</v>
@@ -5780,22 +5780,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5820,7 +5820,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5829,25 +5829,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>824.3287722635405</v>
+        <v>562.5269503710302</v>
       </c>
       <c r="C22" t="n">
-        <v>655.3925893356336</v>
+        <v>393.5907674431233</v>
       </c>
       <c r="D22" t="n">
-        <v>655.3925893356336</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E22" t="n">
-        <v>507.4794957532405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K22" t="n">
         <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
@@ -5923,37 +5923,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S22" t="n">
-        <v>1851.630939216405</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T22" t="n">
-        <v>1851.630939216405</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1562.528072342049</v>
+        <v>1334.618159511895</v>
       </c>
       <c r="V22" t="n">
-        <v>1562.528072342049</v>
+        <v>1079.933671306008</v>
       </c>
       <c r="W22" t="n">
-        <v>1273.110902305088</v>
+        <v>790.5165012690476</v>
       </c>
       <c r="X22" t="n">
-        <v>1045.121351407071</v>
+        <v>562.5269503710302</v>
       </c>
       <c r="Y22" t="n">
-        <v>824.3287722635405</v>
+        <v>562.5269503710302</v>
       </c>
     </row>
     <row r="23">
@@ -5978,22 +5978,22 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.557933208926</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>1002.806306216376</v>
       </c>
       <c r="L23" t="n">
-        <v>1898.858917622688</v>
+        <v>1453.840519464784</v>
       </c>
       <c r="M23" t="n">
         <v>2432.390822294613</v>
@@ -6057,7 +6057,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
@@ -6066,25 +6066,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
@@ -6121,43 +6121,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>432.2000540015824</v>
+        <v>958.1479941221946</v>
       </c>
       <c r="C25" t="n">
-        <v>263.2638710736755</v>
+        <v>789.2118111942876</v>
       </c>
       <c r="D25" t="n">
-        <v>263.2638710736755</v>
+        <v>639.0951717819519</v>
       </c>
       <c r="E25" t="n">
-        <v>263.2638710736755</v>
+        <v>491.1820781995588</v>
       </c>
       <c r="F25" t="n">
-        <v>263.2638710736755</v>
+        <v>491.1820781995588</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>323.4792415742775</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>177.2620547921352</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.670849844206</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927021</v>
       </c>
       <c r="M25" t="n">
         <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598115</v>
       </c>
       <c r="O25" t="n">
         <v>1646.125669518529</v>
@@ -6172,25 +6172,25 @@
         <v>1956.343466104703</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T25" t="n">
-        <v>1895.835173990573</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="U25" t="n">
-        <v>1606.732307116217</v>
+        <v>1475.554715057173</v>
       </c>
       <c r="V25" t="n">
-        <v>1352.04781891033</v>
+        <v>1475.554715057173</v>
       </c>
       <c r="W25" t="n">
-        <v>1062.630648873369</v>
+        <v>1186.137545020212</v>
       </c>
       <c r="X25" t="n">
-        <v>834.641097975352</v>
+        <v>958.1479941221946</v>
       </c>
       <c r="Y25" t="n">
-        <v>613.8485188318219</v>
+        <v>958.1479941221946</v>
       </c>
     </row>
     <row r="26">
@@ -6215,37 +6215,37 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.557933208926</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K26" t="n">
-        <v>975.9286436089831</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L26" t="n">
-        <v>1840.447459262338</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M26" t="n">
-        <v>2373.979363934262</v>
+        <v>2215.249704195856</v>
       </c>
       <c r="N26" t="n">
-        <v>2920.758180993045</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O26" t="n">
-        <v>3800.7228313225</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089894</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468565</v>
@@ -6303,13 +6303,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>270.941730685239</v>
+        <v>260.9043113423044</v>
       </c>
       <c r="C28" t="n">
-        <v>270.941730685239</v>
+        <v>260.9043113423044</v>
       </c>
       <c r="D28" t="n">
-        <v>270.941730685239</v>
+        <v>260.9043113423044</v>
       </c>
       <c r="E28" t="n">
-        <v>270.941730685239</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F28" t="n">
-        <v>124.0517831873287</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6397,37 +6397,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T28" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501055</v>
       </c>
       <c r="U28" t="n">
-        <v>1445.473983799874</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>1190.789495593987</v>
+        <v>999.1036114208124</v>
       </c>
       <c r="W28" t="n">
-        <v>901.3723255570262</v>
+        <v>709.6864413838518</v>
       </c>
       <c r="X28" t="n">
-        <v>673.3827746590089</v>
+        <v>481.6968904858345</v>
       </c>
       <c r="Y28" t="n">
-        <v>452.5901955154786</v>
+        <v>260.9043113423044</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6464,16 +6464,16 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1236.699401366028</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M29" t="n">
-        <v>2215.249704195857</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N29" t="n">
-        <v>2762.028521254639</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O29" t="n">
         <v>3482.142110232732</v>
@@ -6494,19 +6494,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6516,43 +6516,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
@@ -6561,7 +6561,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6570,16 +6570,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
         <v>1346.568408282342</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>432.2000540015823</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>263.2638710736753</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>263.2638710736753</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>263.2638710736753</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736753</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
         <v>95.56103444839442</v>
@@ -6622,7 +6622,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6634,37 +6634,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1606.732307116217</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V31" t="n">
-        <v>1352.04781891033</v>
+        <v>909.2731541783405</v>
       </c>
       <c r="W31" t="n">
-        <v>1062.630648873369</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X31" t="n">
-        <v>834.6410979753521</v>
+        <v>391.8664332433625</v>
       </c>
       <c r="Y31" t="n">
-        <v>613.8485188318219</v>
+        <v>171.0738540998324</v>
       </c>
     </row>
     <row r="32">
@@ -6677,19 +6677,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6698,28 +6698,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>407.2827125145384</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>741.1020862043849</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1605.62090185774</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2584.171204687568</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N32" t="n">
-        <v>3130.950021746351</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O32" t="n">
-        <v>4010.914672075805</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P32" t="n">
-        <v>4405.689038432984</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4689.712021827577</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6728,22 +6728,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
@@ -6777,7 +6777,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
         <v>427.5025029193589</v>
@@ -6795,22 +6795,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>432.2000540015823</v>
+        <v>192.886711630049</v>
       </c>
       <c r="C34" t="n">
-        <v>263.2638710736754</v>
+        <v>192.886711630049</v>
       </c>
       <c r="D34" t="n">
-        <v>263.2638710736754</v>
+        <v>192.886711630049</v>
       </c>
       <c r="E34" t="n">
-        <v>263.2638710736754</v>
+        <v>192.886711630049</v>
       </c>
       <c r="F34" t="n">
-        <v>263.2638710736754</v>
+        <v>192.886711630049</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6865,13 +6865,13 @@
         <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
@@ -6880,28 +6880,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1606.732307116217</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1606.732307116217</v>
+        <v>1367.418964744684</v>
       </c>
       <c r="V34" t="n">
-        <v>1352.04781891033</v>
+        <v>1112.734476538797</v>
       </c>
       <c r="W34" t="n">
-        <v>1062.63064887337</v>
+        <v>823.3173065018361</v>
       </c>
       <c r="X34" t="n">
-        <v>834.6410979753523</v>
+        <v>595.3277556038188</v>
       </c>
       <c r="Y34" t="n">
-        <v>613.848518831822</v>
+        <v>374.5351764602887</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6923,13 @@
         <v>1106.808364398085</v>
       </c>
       <c r="F35" t="n">
-        <v>731.6764154529689</v>
+        <v>731.6764154529681</v>
       </c>
       <c r="G35" t="n">
-        <v>352.4579211424561</v>
+        <v>352.4579211424552</v>
       </c>
       <c r="H35" t="n">
-        <v>90.72827659571323</v>
+        <v>90.7282765957133</v>
       </c>
       <c r="I35" t="n">
         <v>84.58533367967276</v>
@@ -6938,25 +6938,25 @@
         <v>273.4644646386982</v>
       </c>
       <c r="K35" t="n">
-        <v>607.2838383285447</v>
+        <v>899.0396659381959</v>
       </c>
       <c r="L35" t="n">
-        <v>1058.318051576954</v>
+        <v>1350.073879186605</v>
       </c>
       <c r="M35" t="n">
-        <v>2036.868354406782</v>
+        <v>1883.605783858529</v>
       </c>
       <c r="N35" t="n">
-        <v>3016.620626633429</v>
+        <v>2430.384600917312</v>
       </c>
       <c r="O35" t="n">
-        <v>3519.593097512766</v>
+        <v>2933.357071796649</v>
       </c>
       <c r="P35" t="n">
-        <v>3921.963255671153</v>
+        <v>3646.712159243594</v>
       </c>
       <c r="Q35" t="n">
-        <v>4170.249617426835</v>
+        <v>4105.190361752582</v>
       </c>
       <c r="R35" t="n">
         <v>4229.266683983637</v>
@@ -6971,13 +6971,13 @@
         <v>3767.029658702264</v>
       </c>
       <c r="V35" t="n">
-        <v>3471.820727203183</v>
+        <v>3471.820727203184</v>
       </c>
       <c r="W35" t="n">
-        <v>3154.90602777756</v>
+        <v>3154.906027777561</v>
       </c>
       <c r="X35" t="n">
-        <v>2817.294225360971</v>
+        <v>2817.294225360972</v>
       </c>
       <c r="Y35" t="n">
         <v>2463.00884922965</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>582.2589880867718</v>
+        <v>636.2354894847515</v>
       </c>
       <c r="C37" t="n">
-        <v>582.2589880867718</v>
+        <v>503.1532624013353</v>
       </c>
       <c r="D37" t="n">
-        <v>499.3051583886978</v>
+        <v>503.1532624013353</v>
       </c>
       <c r="E37" t="n">
-        <v>499.3051583886978</v>
+        <v>391.0941246634329</v>
       </c>
       <c r="F37" t="n">
-        <v>388.2691667352782</v>
+        <v>280.0581330100133</v>
       </c>
       <c r="G37" t="n">
-        <v>256.420285954488</v>
+        <v>256.4202859544881</v>
       </c>
       <c r="H37" t="n">
-        <v>146.0570550168366</v>
+        <v>146.0570550168367</v>
       </c>
       <c r="I37" t="n">
         <v>84.58533367967276</v>
       </c>
       <c r="J37" t="n">
-        <v>164.8484282497937</v>
+        <v>164.8484282497938</v>
       </c>
       <c r="K37" t="n">
-        <v>403.9760733218555</v>
+        <v>403.9760733218554</v>
       </c>
       <c r="L37" t="n">
-        <v>755.676333893537</v>
+        <v>755.6763338935369</v>
       </c>
       <c r="M37" t="n">
-        <v>1134.973841616272</v>
+        <v>1134.973841616271</v>
       </c>
       <c r="N37" t="n">
-        <v>1511.522680445322</v>
+        <v>1511.522680445321</v>
       </c>
       <c r="O37" t="n">
-        <v>1845.992741488921</v>
+        <v>1845.99274148892</v>
       </c>
       <c r="P37" t="n">
         <v>2113.740704045765</v>
       </c>
       <c r="Q37" t="n">
-        <v>2226.491462321465</v>
+        <v>2226.491462321464</v>
       </c>
       <c r="R37" t="n">
-        <v>2172.514960923484</v>
+        <v>2226.491462321464</v>
       </c>
       <c r="S37" t="n">
-        <v>2016.683032594801</v>
+        <v>2070.659533992782</v>
       </c>
       <c r="T37" t="n">
-        <v>1830.770373008818</v>
+        <v>1884.746874406798</v>
       </c>
       <c r="U37" t="n">
-        <v>1577.521461978952</v>
+        <v>1631.497963376933</v>
       </c>
       <c r="V37" t="n">
-        <v>1358.690929617556</v>
+        <v>1412.667431015537</v>
       </c>
       <c r="W37" t="n">
-        <v>1105.127715425087</v>
+        <v>1159.104216823067</v>
       </c>
       <c r="X37" t="n">
-        <v>912.99212037156</v>
+        <v>966.9686217695398</v>
       </c>
       <c r="Y37" t="n">
-        <v>728.0534970725207</v>
+        <v>782.0299984705005</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2112.262965010018</v>
+        <v>2112.26296501002</v>
       </c>
       <c r="C38" t="n">
-        <v>1779.154403914097</v>
+        <v>1779.154403914099</v>
       </c>
       <c r="D38" t="n">
-        <v>1456.742661151837</v>
+        <v>1456.742661151839</v>
       </c>
       <c r="E38" t="n">
-        <v>1106.808364398084</v>
+        <v>1106.808364398085</v>
       </c>
       <c r="F38" t="n">
-        <v>731.6764154529673</v>
+        <v>731.6764154529685</v>
       </c>
       <c r="G38" t="n">
-        <v>352.4579211424544</v>
+        <v>352.4579211424557</v>
       </c>
       <c r="H38" t="n">
-        <v>90.72827659571333</v>
+        <v>90.72827659571327</v>
       </c>
       <c r="I38" t="n">
         <v>84.58533367967276</v>
@@ -7178,19 +7178,19 @@
         <v>607.2838383285447</v>
       </c>
       <c r="L38" t="n">
-        <v>1471.802653981899</v>
+        <v>1058.318051576954</v>
       </c>
       <c r="M38" t="n">
-        <v>2005.334558653824</v>
+        <v>2036.868354406782</v>
       </c>
       <c r="N38" t="n">
-        <v>2552.113375712606</v>
+        <v>2583.647171465564</v>
       </c>
       <c r="O38" t="n">
-        <v>3055.085846591943</v>
+        <v>3316.997048560669</v>
       </c>
       <c r="P38" t="n">
-        <v>3768.440934038889</v>
+        <v>3711.771414917847</v>
       </c>
       <c r="Q38" t="n">
         <v>4170.249617426835</v>
@@ -7205,19 +7205,19 @@
         <v>3984.706179583936</v>
       </c>
       <c r="U38" t="n">
-        <v>3767.029658702263</v>
+        <v>3767.029658702264</v>
       </c>
       <c r="V38" t="n">
-        <v>3471.820727203182</v>
+        <v>3471.820727203184</v>
       </c>
       <c r="W38" t="n">
-        <v>3154.906027777559</v>
+        <v>3154.906027777561</v>
       </c>
       <c r="X38" t="n">
-        <v>2817.29422536097</v>
+        <v>2817.294225360972</v>
       </c>
       <c r="Y38" t="n">
-        <v>2463.008849229649</v>
+        <v>2463.008849229651</v>
       </c>
     </row>
     <row r="39">
@@ -7227,31 +7227,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>959.6170717285979</v>
+        <v>959.6170717285977</v>
       </c>
       <c r="C39" t="n">
-        <v>785.1640424474709</v>
+        <v>785.1640424474707</v>
       </c>
       <c r="D39" t="n">
-        <v>636.2296327862197</v>
+        <v>636.2296327862196</v>
       </c>
       <c r="E39" t="n">
-        <v>476.9921777807642</v>
+        <v>476.992177780764</v>
       </c>
       <c r="F39" t="n">
-        <v>330.4576198076492</v>
+        <v>330.4576198076491</v>
       </c>
       <c r="G39" t="n">
-        <v>194.0945196402673</v>
+        <v>194.0945196402675</v>
       </c>
       <c r="H39" t="n">
-        <v>103.5926252781348</v>
+        <v>103.5926252781351</v>
       </c>
       <c r="I39" t="n">
         <v>84.58533367967276</v>
       </c>
       <c r="J39" t="n">
-        <v>178.2626031702901</v>
+        <v>178.2626031702904</v>
       </c>
       <c r="K39" t="n">
         <v>416.5268021506373</v>
@@ -7290,7 +7290,7 @@
         <v>1797.681564447354</v>
       </c>
       <c r="W39" t="n">
-        <v>1543.444207719153</v>
+        <v>1543.444207719152</v>
       </c>
       <c r="X39" t="n">
         <v>1335.59270751362</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>582.2589880867695</v>
+        <v>686.2014937872779</v>
       </c>
       <c r="C40" t="n">
-        <v>449.1767610033532</v>
+        <v>553.1192667038617</v>
       </c>
       <c r="D40" t="n">
-        <v>334.9140774355081</v>
+        <v>438.8565831360168</v>
       </c>
       <c r="E40" t="n">
-        <v>222.8549396976057</v>
+        <v>326.7974453981144</v>
       </c>
       <c r="F40" t="n">
-        <v>222.8549396976057</v>
+        <v>326.7974453981144</v>
       </c>
       <c r="G40" t="n">
-        <v>91.00605891681538</v>
+        <v>194.9485646173242</v>
       </c>
       <c r="H40" t="n">
-        <v>91.00605891681538</v>
+        <v>84.58533367967276</v>
       </c>
       <c r="I40" t="n">
         <v>84.58533367967276</v>
       </c>
       <c r="J40" t="n">
-        <v>164.8484282497936</v>
+        <v>164.8484282497937</v>
       </c>
       <c r="K40" t="n">
-        <v>403.9760733218552</v>
+        <v>403.9760733218555</v>
       </c>
       <c r="L40" t="n">
-        <v>755.6763338935366</v>
+        <v>755.676333893537</v>
       </c>
       <c r="M40" t="n">
         <v>1134.973841616271</v>
       </c>
       <c r="N40" t="n">
-        <v>1511.522680445321</v>
+        <v>1511.522680445322</v>
       </c>
       <c r="O40" t="n">
-        <v>1845.99274148892</v>
+        <v>1845.992741488921</v>
       </c>
       <c r="P40" t="n">
-        <v>2113.740704045764</v>
+        <v>2113.740704045765</v>
       </c>
       <c r="Q40" t="n">
-        <v>2226.491462321464</v>
+        <v>2226.491462321465</v>
       </c>
       <c r="R40" t="n">
-        <v>2172.514960923483</v>
+        <v>2172.514960923484</v>
       </c>
       <c r="S40" t="n">
-        <v>2016.6830325948</v>
+        <v>2016.683032594801</v>
       </c>
       <c r="T40" t="n">
-        <v>1830.770373008817</v>
+        <v>1830.770373008818</v>
       </c>
       <c r="U40" t="n">
-        <v>1577.521461978951</v>
+        <v>1577.521461978952</v>
       </c>
       <c r="V40" t="n">
-        <v>1358.690929617555</v>
+        <v>1358.690929617556</v>
       </c>
       <c r="W40" t="n">
-        <v>1105.127715425085</v>
+        <v>1105.127715425086</v>
       </c>
       <c r="X40" t="n">
-        <v>912.9921203715585</v>
+        <v>912.9921203715594</v>
       </c>
       <c r="Y40" t="n">
-        <v>728.0534970725184</v>
+        <v>728.0534970725198</v>
       </c>
     </row>
     <row r="41">
@@ -7385,52 +7385,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2112.262965010018</v>
+        <v>2112.26296501002</v>
       </c>
       <c r="C41" t="n">
-        <v>1779.154403914097</v>
+        <v>1779.154403914099</v>
       </c>
       <c r="D41" t="n">
-        <v>1456.742661151838</v>
+        <v>1456.742661151839</v>
       </c>
       <c r="E41" t="n">
-        <v>1106.808364398084</v>
+        <v>1106.808364398086</v>
       </c>
       <c r="F41" t="n">
-        <v>731.6764154529671</v>
+        <v>731.6764154529689</v>
       </c>
       <c r="G41" t="n">
-        <v>352.4579211424543</v>
+        <v>352.4579211424561</v>
       </c>
       <c r="H41" t="n">
-        <v>90.72827659571335</v>
+        <v>90.72827659571323</v>
       </c>
       <c r="I41" t="n">
         <v>84.58533367967276</v>
       </c>
       <c r="J41" t="n">
-        <v>273.4644646386982</v>
+        <v>398.4199535515373</v>
       </c>
       <c r="K41" t="n">
-        <v>928.1877967739977</v>
+        <v>732.2393272413838</v>
       </c>
       <c r="L41" t="n">
-        <v>1379.222010022406</v>
+        <v>1183.273540489793</v>
       </c>
       <c r="M41" t="n">
-        <v>1912.753914694331</v>
+        <v>1716.805445161717</v>
       </c>
       <c r="N41" t="n">
-        <v>2459.532731753113</v>
+        <v>2263.5842622205</v>
       </c>
       <c r="O41" t="n">
-        <v>2998.416327470902</v>
+        <v>3143.548912549954</v>
       </c>
       <c r="P41" t="n">
-        <v>3711.771414917847</v>
+        <v>3856.9039999969</v>
       </c>
       <c r="Q41" t="n">
-        <v>4170.249617426835</v>
+        <v>4105.190361752582</v>
       </c>
       <c r="R41" t="n">
         <v>4229.266683983637</v>
@@ -7448,13 +7448,13 @@
         <v>3471.820727203184</v>
       </c>
       <c r="W41" t="n">
-        <v>3154.90602777756</v>
+        <v>3154.906027777561</v>
       </c>
       <c r="X41" t="n">
-        <v>2817.294225360971</v>
+        <v>2817.294225360972</v>
       </c>
       <c r="Y41" t="n">
-        <v>2463.00884922965</v>
+        <v>2463.008849229651</v>
       </c>
     </row>
     <row r="42">
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>792.067417813434</v>
+        <v>636.2354894847531</v>
       </c>
       <c r="C43" t="n">
-        <v>658.9851907300177</v>
+        <v>503.153262401337</v>
       </c>
       <c r="D43" t="n">
-        <v>611.3642961266007</v>
+        <v>388.8905788334919</v>
       </c>
       <c r="E43" t="n">
-        <v>499.3051583886983</v>
+        <v>327.4702061138826</v>
       </c>
       <c r="F43" t="n">
-        <v>388.2691667352786</v>
+        <v>216.434214460463</v>
       </c>
       <c r="G43" t="n">
-        <v>256.4202859544882</v>
+        <v>84.58533367967276</v>
       </c>
       <c r="H43" t="n">
-        <v>146.0570550168367</v>
+        <v>84.58533367967276</v>
       </c>
       <c r="I43" t="n">
         <v>84.58533367967276</v>
       </c>
       <c r="J43" t="n">
-        <v>164.8484282497935</v>
+        <v>164.8484282497937</v>
       </c>
       <c r="K43" t="n">
-        <v>403.9760733218553</v>
+        <v>403.9760733218555</v>
       </c>
       <c r="L43" t="n">
-        <v>755.6763338935367</v>
+        <v>755.676333893537</v>
       </c>
       <c r="M43" t="n">
         <v>1134.973841616271</v>
@@ -7585,34 +7585,34 @@
         <v>1845.99274148892</v>
       </c>
       <c r="P43" t="n">
-        <v>2113.740704045764</v>
+        <v>2113.740704045765</v>
       </c>
       <c r="Q43" t="n">
-        <v>2226.491462321464</v>
+        <v>2226.491462321465</v>
       </c>
       <c r="R43" t="n">
-        <v>2226.491462321464</v>
+        <v>2226.491462321465</v>
       </c>
       <c r="S43" t="n">
-        <v>2226.491462321464</v>
+        <v>2070.659533992782</v>
       </c>
       <c r="T43" t="n">
-        <v>2040.578802735481</v>
+        <v>1884.7468744068</v>
       </c>
       <c r="U43" t="n">
-        <v>1787.329891705615</v>
+        <v>1631.497963376934</v>
       </c>
       <c r="V43" t="n">
-        <v>1568.499359344219</v>
+        <v>1412.667431015538</v>
       </c>
       <c r="W43" t="n">
-        <v>1314.936145151749</v>
+        <v>1159.104216823068</v>
       </c>
       <c r="X43" t="n">
-        <v>1122.800550098222</v>
+        <v>966.9686217695414</v>
       </c>
       <c r="Y43" t="n">
-        <v>937.861926799183</v>
+        <v>782.0299984705021</v>
       </c>
     </row>
     <row r="44">
@@ -7625,49 +7625,49 @@
         <v>2112.262965010018</v>
       </c>
       <c r="C44" t="n">
-        <v>1779.154403914097</v>
+        <v>1779.154403914098</v>
       </c>
       <c r="D44" t="n">
         <v>1456.742661151838</v>
       </c>
       <c r="E44" t="n">
-        <v>1106.808364398084</v>
+        <v>1106.808364398085</v>
       </c>
       <c r="F44" t="n">
-        <v>731.6764154529681</v>
+        <v>731.6764154529679</v>
       </c>
       <c r="G44" t="n">
-        <v>352.4579211424553</v>
+        <v>352.4579211424552</v>
       </c>
       <c r="H44" t="n">
-        <v>90.7282765957132</v>
+        <v>90.72827659571323</v>
       </c>
       <c r="I44" t="n">
         <v>84.58533367967276</v>
       </c>
       <c r="J44" t="n">
-        <v>273.4644646386982</v>
+        <v>440.8701136590512</v>
       </c>
       <c r="K44" t="n">
-        <v>607.2838383285447</v>
+        <v>1095.593445794351</v>
       </c>
       <c r="L44" t="n">
-        <v>1058.318051576954</v>
+        <v>1546.62765904276</v>
       </c>
       <c r="M44" t="n">
-        <v>1591.849956248878</v>
+        <v>2080.159563714684</v>
       </c>
       <c r="N44" t="n">
-        <v>2138.628773307661</v>
+        <v>2626.938380773467</v>
       </c>
       <c r="O44" t="n">
-        <v>3018.593423637115</v>
+        <v>3129.910851652804</v>
       </c>
       <c r="P44" t="n">
-        <v>3731.948511084061</v>
+        <v>3843.26593909975</v>
       </c>
       <c r="Q44" t="n">
-        <v>4170.249617426835</v>
+        <v>4105.190361752582</v>
       </c>
       <c r="R44" t="n">
         <v>4229.266683983637</v>
@@ -7679,10 +7679,10 @@
         <v>3984.706179583936</v>
       </c>
       <c r="U44" t="n">
-        <v>3767.029658702262</v>
+        <v>3767.029658702263</v>
       </c>
       <c r="V44" t="n">
-        <v>3471.820727203182</v>
+        <v>3471.820727203183</v>
       </c>
       <c r="W44" t="n">
         <v>3154.906027777559</v>
@@ -7691,7 +7691,7 @@
         <v>2817.29422536097</v>
       </c>
       <c r="Y44" t="n">
-        <v>2463.008849229649</v>
+        <v>2463.00884922965</v>
       </c>
     </row>
     <row r="45">
@@ -7701,13 +7701,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>959.6170717285979</v>
+        <v>959.617071728598</v>
       </c>
       <c r="C45" t="n">
-        <v>785.1640424474709</v>
+        <v>785.164042447471</v>
       </c>
       <c r="D45" t="n">
-        <v>636.2296327862197</v>
+        <v>636.2296327862198</v>
       </c>
       <c r="E45" t="n">
         <v>476.9921777807642</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>746.6500690399588</v>
+        <v>636.2354894847533</v>
       </c>
       <c r="C46" t="n">
-        <v>613.5678419565427</v>
+        <v>503.1532624013372</v>
       </c>
       <c r="D46" t="n">
-        <v>499.3051583886977</v>
+        <v>388.9419274510464</v>
       </c>
       <c r="E46" t="n">
-        <v>499.3051583886977</v>
+        <v>388.9419274510464</v>
       </c>
       <c r="F46" t="n">
-        <v>388.2691667352782</v>
+        <v>277.9059357976269</v>
       </c>
       <c r="G46" t="n">
-        <v>256.420285954488</v>
+        <v>146.0570550168366</v>
       </c>
       <c r="H46" t="n">
         <v>146.0570550168366</v>
       </c>
       <c r="I46" t="n">
-        <v>84.58533367967276</v>
+        <v>84.58533367967274</v>
       </c>
       <c r="J46" t="n">
         <v>164.8484282497937</v>
@@ -7831,25 +7831,25 @@
         <v>2226.491462321465</v>
       </c>
       <c r="S46" t="n">
-        <v>2181.074113547988</v>
+        <v>2070.659533992783</v>
       </c>
       <c r="T46" t="n">
-        <v>1995.161453962005</v>
+        <v>1884.7468744068</v>
       </c>
       <c r="U46" t="n">
-        <v>1741.912542932139</v>
+        <v>1631.497963376934</v>
       </c>
       <c r="V46" t="n">
-        <v>1523.082010570743</v>
+        <v>1412.667431015538</v>
       </c>
       <c r="W46" t="n">
-        <v>1269.518796378273</v>
+        <v>1159.104216823068</v>
       </c>
       <c r="X46" t="n">
-        <v>1077.383201324747</v>
+        <v>966.9686217695416</v>
       </c>
       <c r="Y46" t="n">
-        <v>892.4445780257076</v>
+        <v>782.0299984705023</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>62.50551572733644</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>267.9233699372487</v>
+        <v>331.5088895503181</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,10 +8301,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028825</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8705,10 +8705,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>246.4545694808451</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>77.35795430877127</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>344.7025836476838</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9164,13 +9164,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>219.3344627260164</v>
       </c>
       <c r="L17" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9401,19 +9401,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>219.3344627260169</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9638,13 +9638,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>219.3344627260167</v>
       </c>
       <c r="L23" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9875,28 +9875,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>192.185308577135</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>285.0508825989999</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,19 +10112,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>219.3344627260163</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10346,16 +10346,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>124.0833809162814</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10364,13 +10364,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>29.61882225792094</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10586,28 +10586,28 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>294.7028561713648</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>7.672516970918366</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10826,22 +10826,22 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>232.7044507229976</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>155.0730521538018</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11057,10 +11057,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>126.2176655685243</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11072,16 +11072,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>36.27386347318338</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,10 +11294,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11309,16 +11309,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>191.9340854415067</v>
+        <v>13.77581908803066</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23422,16 +23422,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>31.95930209741361</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761729</v>
       </c>
       <c r="U13" t="n">
-        <v>236.0231317184264</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>85.51783882994407</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>219.2788295862223</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>88.71226382522433</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>88.93215267004737</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>85.72570918107431</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>175.0357763820737</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>80.02175928634389</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983813</v>
+        <v>15.46841026953473</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004736</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>159.6457400831812</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>79.09653893143663</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>137.8199670074833</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>105.0742887270137</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24850,7 +24850,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>159.6457400831803</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25120,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>152.1350798790567</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>112.4945564668046</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25312,19 +25312,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>131.7514048125819</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>30.99576533107322</v>
+        <v>113.1200567321665</v>
       </c>
       <c r="E37" t="n">
-        <v>110.9385463605233</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>107.1289233880121</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>53.43673638400152</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>102.9030806435019</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>109.9256317368855</v>
+        <v>109.9256317368854</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>109.259598628275</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>54.50048613902111</v>
+        <v>60.85700412379224</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,10 +25789,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>65.97537107478335</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>50.13237736811008</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>109.2595986282749</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>60.85700412379222</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>53.43673638400155</v>
+        <v>53.43673638400143</v>
       </c>
       <c r="S43" t="n">
-        <v>154.2736090453961</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>0.05083513137887508</v>
       </c>
       <c r="E46" t="n">
         <v>110.9385463605233</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>109.2595986282749</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>53.43673638400143</v>
       </c>
       <c r="S46" t="n">
-        <v>109.3104337596537</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>389994.8406855347</v>
+        <v>389994.8406855348</v>
       </c>
       <c r="C2" t="n">
         <v>389994.8406855345</v>
@@ -26326,31 +26326,31 @@
         <v>377227.6975426337</v>
       </c>
       <c r="G2" t="n">
-        <v>377227.697542634</v>
+        <v>377227.6975426339</v>
       </c>
       <c r="H2" t="n">
-        <v>377227.6975426342</v>
+        <v>377227.6975426343</v>
       </c>
       <c r="I2" t="n">
         <v>377227.6975426342</v>
       </c>
       <c r="J2" t="n">
-        <v>377227.6975426338</v>
+        <v>377227.6975426342</v>
       </c>
       <c r="K2" t="n">
-        <v>377227.6975426339</v>
+        <v>377227.6975426342</v>
       </c>
       <c r="L2" t="n">
-        <v>377227.6975426339</v>
+        <v>377227.6975426343</v>
       </c>
       <c r="M2" t="n">
         <v>386874.823517387</v>
       </c>
       <c r="N2" t="n">
-        <v>386874.8235173872</v>
+        <v>386874.8235173869</v>
       </c>
       <c r="O2" t="n">
-        <v>386874.823517387</v>
+        <v>386874.8235173869</v>
       </c>
       <c r="P2" t="n">
         <v>386874.823517387</v>
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>507203.1428394286</v>
+        <v>507203.1428394252</v>
       </c>
       <c r="C3" t="n">
-        <v>78665.28217417863</v>
+        <v>78665.28217418189</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>157829.4001410738</v>
+        <v>157829.4001410731</v>
       </c>
       <c r="K3" t="n">
-        <v>18289.94367022126</v>
+        <v>18289.94367022219</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.13686837721616e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>232017.7717547193</v>
+        <v>232017.7717547202</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
@@ -26424,40 +26424,40 @@
         <v>209922.4154630333</v>
       </c>
       <c r="E4" t="n">
-        <v>28561.8393528957</v>
+        <v>28561.83935289571</v>
       </c>
       <c r="F4" t="n">
-        <v>28561.83935289569</v>
+        <v>28561.83935289573</v>
       </c>
       <c r="G4" t="n">
-        <v>28561.83935289571</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="H4" t="n">
-        <v>28561.8393528957</v>
+        <v>28561.83935289572</v>
       </c>
       <c r="I4" t="n">
+        <v>28561.83935289576</v>
+      </c>
+      <c r="J4" t="n">
+        <v>28561.83935289577</v>
+      </c>
+      <c r="K4" t="n">
         <v>28561.83935289575</v>
-      </c>
-      <c r="J4" t="n">
-        <v>28561.83935289575</v>
-      </c>
-      <c r="K4" t="n">
-        <v>28561.83935289576</v>
       </c>
       <c r="L4" t="n">
         <v>28561.83935289575</v>
       </c>
       <c r="M4" t="n">
+        <v>55718.30868501858</v>
+      </c>
+      <c r="N4" t="n">
+        <v>55718.3086850186</v>
+      </c>
+      <c r="O4" t="n">
         <v>55718.30868501864</v>
       </c>
-      <c r="N4" t="n">
-        <v>55718.30868501855</v>
-      </c>
-      <c r="O4" t="n">
-        <v>55718.30868501854</v>
-      </c>
       <c r="P4" t="n">
-        <v>55718.30868501867</v>
+        <v>55718.3086850186</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77204.68871133446</v>
+        <v>77204.68871133422</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26491,7 +26491,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371366</v>
@@ -26503,10 +26503,10 @@
         <v>91026.04982123678</v>
       </c>
       <c r="N5" t="n">
-        <v>91026.04982123677</v>
+        <v>91026.04982123678</v>
       </c>
       <c r="O5" t="n">
-        <v>91026.04982123677</v>
+        <v>91026.04982123678</v>
       </c>
       <c r="P5" t="n">
         <v>91026.04982123678</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-426430.7626199478</v>
+        <v>-426430.7626199449</v>
       </c>
       <c r="C6" t="n">
-        <v>18548.06498491316</v>
+        <v>18548.06498490981</v>
       </c>
       <c r="D6" t="n">
         <v>97213.3471590917</v>
       </c>
       <c r="E6" t="n">
-        <v>-475095.0740573822</v>
+        <v>-475162.2695476079</v>
       </c>
       <c r="F6" t="n">
-        <v>252282.3399360244</v>
+        <v>252215.1444457986</v>
       </c>
       <c r="G6" t="n">
-        <v>252282.3399360247</v>
+        <v>252215.1444457987</v>
       </c>
       <c r="H6" t="n">
-        <v>252282.3399360248</v>
+        <v>252215.1444457991</v>
       </c>
       <c r="I6" t="n">
-        <v>252282.3399360248</v>
+        <v>252215.144445799</v>
       </c>
       <c r="J6" t="n">
-        <v>94452.93979495058</v>
+        <v>94385.74430472586</v>
       </c>
       <c r="K6" t="n">
-        <v>233992.3962658033</v>
+        <v>233925.2007755768</v>
       </c>
       <c r="L6" t="n">
-        <v>252282.3399360245</v>
+        <v>252215.1444457991</v>
       </c>
       <c r="M6" t="n">
-        <v>116281.6738229565</v>
+        <v>116265.2526799665</v>
       </c>
       <c r="N6" t="n">
-        <v>240130.4650111319</v>
+        <v>240114.0438681412</v>
       </c>
       <c r="O6" t="n">
-        <v>240130.4650111317</v>
+        <v>240114.0438681412</v>
       </c>
       <c r="P6" t="n">
-        <v>240130.4650111315</v>
+        <v>240114.0438681414</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>35.49541628604582</v>
+      </c>
+      <c r="N2" t="n">
+        <v>35.49541628604585</v>
+      </c>
+      <c r="O2" t="n">
         <v>35.49541628604588</v>
       </c>
-      <c r="N2" t="n">
-        <v>35.49541628604579</v>
-      </c>
-      <c r="O2" t="n">
-        <v>35.49541628604577</v>
-      </c>
       <c r="P2" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604588</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5685789688993</v>
+        <v>316.5685789688968</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>603.2219356877048</v>
+        <v>603.2219356877019</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.4210854715202e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5685789688993</v>
+        <v>316.5685789688968</v>
       </c>
       <c r="C3" t="n">
-        <v>61.17508524818737</v>
+        <v>61.17508524818993</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762115</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>603.2219356877048</v>
+        <v>603.2219356877019</v>
       </c>
       <c r="C4" t="n">
-        <v>71.06533706685082</v>
+        <v>71.06533706685366</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,10 +27033,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>603.2219356877048</v>
+        <v>603.2219356877019</v>
       </c>
       <c r="K4" t="n">
-        <v>71.06533706685082</v>
+        <v>71.06533706685377</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>603.2219356877048</v>
+        <v>603.2219356877019</v>
       </c>
       <c r="K4" t="n">
-        <v>71.06533706685082</v>
+        <v>71.06533706685366</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>104.6289212061703</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>326.4414032841481</v>
+        <v>326.4414032841482</v>
       </c>
       <c r="I2" t="n">
-        <v>161.4125322208643</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>69.92680236866678</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.5248788930304</v>
+        <v>217.5248788930305</v>
       </c>
       <c r="U2" t="n">
         <v>251.2438419075651</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>302.5195340819296</v>
       </c>
     </row>
     <row r="3">
@@ -27455,13 +27455,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>145.4310341354586</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27521,10 +27521,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>87.19340392280424</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.4201179865476</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1516959462661</v>
+        <v>109.4692509918007</v>
       </c>
       <c r="I4" t="n">
-        <v>138.2831165792399</v>
+        <v>138.2831165792401</v>
       </c>
       <c r="J4" t="n">
-        <v>52.99928112255591</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,16 +27585,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>214.068041219212</v>
       </c>
       <c r="T4" t="n">
         <v>225.5064544755703</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2878914634775</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>224.6571150254677</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>42.20549040893462</v>
+        <v>201.5734099041341</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>85.50989528826827</v>
       </c>
       <c r="C7" t="n">
-        <v>66.73792403452232</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27795,7 +27795,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,13 +27831,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,16 +27853,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>171.3560889769491</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>247.9340427562851</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27913,7 +27913,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28026,13 +28026,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>89.16998881226515</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>40.30538955181814</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-1.06581410364015e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28284,7 +28284,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>-1.131512894910411e-12</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -28299,7 +28299,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>-1.692730749403025e-12</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28521,7 +28521,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>-1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -28548,7 +28548,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>-1.77832522963034e-12</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="C35" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="D35" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="E35" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="F35" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="G35" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="H35" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="I35" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="T35" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="U35" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="V35" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="W35" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="X35" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="Y35" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="C37" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="D37" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="E37" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="F37" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="G37" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="H37" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="I37" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="J37" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="K37" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="L37" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="M37" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="N37" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="O37" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="P37" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="Q37" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="R37" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="S37" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="T37" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="U37" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="V37" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="W37" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="X37" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="Y37" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="C38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="D38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="E38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="F38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="G38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="H38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="I38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="T38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="U38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="V38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="W38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="X38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="Y38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="C40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="D40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="E40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="F40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="G40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="H40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="I40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="J40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="K40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="L40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="M40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="N40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="O40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="P40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="Q40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="R40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="S40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="T40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="U40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="V40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="W40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="X40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="Y40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="C41" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="D41" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="E41" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="F41" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="G41" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="H41" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="I41" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="T41" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="U41" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="V41" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="W41" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="X41" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="Y41" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604588</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="C43" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="D43" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="E43" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="F43" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="G43" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="H43" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="I43" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="J43" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="K43" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="L43" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="M43" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="N43" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="O43" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="P43" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="Q43" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="R43" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="S43" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="T43" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="U43" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="V43" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="W43" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="X43" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="Y43" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604588</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="C44" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="D44" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="E44" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="F44" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="G44" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="H44" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="I44" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="T44" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="U44" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604504</v>
       </c>
       <c r="V44" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="W44" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="X44" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="Y44" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604588</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="C46" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="D46" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="E46" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="F46" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="G46" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="H46" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="I46" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="J46" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="K46" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="L46" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="M46" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="N46" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="O46" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="P46" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="Q46" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="R46" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="S46" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="T46" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="U46" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="V46" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="W46" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="X46" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="Y46" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604588</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.272637503392559</v>
+        <v>1.272637503392549</v>
       </c>
       <c r="H2" t="n">
-        <v>13.03339883161905</v>
+        <v>13.03339883161894</v>
       </c>
       <c r="I2" t="n">
-        <v>49.06335734954168</v>
+        <v>49.06335734954128</v>
       </c>
       <c r="J2" t="n">
-        <v>108.0135173035643</v>
+        <v>108.0135173035634</v>
       </c>
       <c r="K2" t="n">
-        <v>161.8842628221713</v>
+        <v>161.8842628221701</v>
       </c>
       <c r="L2" t="n">
-        <v>200.8317428166214</v>
+        <v>200.8317428166198</v>
       </c>
       <c r="M2" t="n">
-        <v>223.4640100175788</v>
+        <v>223.464010017577</v>
       </c>
       <c r="N2" t="n">
-        <v>227.079891324093</v>
+        <v>227.0798913240911</v>
       </c>
       <c r="O2" t="n">
-        <v>214.4251021497332</v>
+        <v>214.4251021497315</v>
       </c>
       <c r="P2" t="n">
-        <v>183.0068637847293</v>
+        <v>183.0068637847279</v>
       </c>
       <c r="Q2" t="n">
-        <v>137.4305331944833</v>
+        <v>137.4305331944822</v>
       </c>
       <c r="R2" t="n">
-        <v>79.9423155724829</v>
+        <v>79.94231557248227</v>
       </c>
       <c r="S2" t="n">
-        <v>29.00022710855797</v>
+        <v>29.00022710855773</v>
       </c>
       <c r="T2" t="n">
-        <v>5.570970671100929</v>
+        <v>5.570970671100885</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1018110002714047</v>
+        <v>0.1018110002714039</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6809210943859343</v>
+        <v>0.6809210943859288</v>
       </c>
       <c r="H3" t="n">
-        <v>6.576264253674682</v>
+        <v>6.57626425367463</v>
       </c>
       <c r="I3" t="n">
-        <v>23.4439938198666</v>
+        <v>23.44399381986641</v>
       </c>
       <c r="J3" t="n">
-        <v>64.33211093933076</v>
+        <v>64.33211093933025</v>
       </c>
       <c r="K3" t="n">
-        <v>109.9538242631884</v>
+        <v>109.9538242631875</v>
       </c>
       <c r="L3" t="n">
-        <v>147.84648586656</v>
+        <v>147.8464858665588</v>
       </c>
       <c r="M3" t="n">
-        <v>172.5298755380501</v>
+        <v>172.5298755380487</v>
       </c>
       <c r="N3" t="n">
-        <v>177.0962279648751</v>
+        <v>177.0962279648737</v>
       </c>
       <c r="O3" t="n">
-        <v>162.0084500313762</v>
+        <v>162.0084500313749</v>
       </c>
       <c r="P3" t="n">
-        <v>130.0260640674334</v>
+        <v>130.0260640674323</v>
       </c>
       <c r="Q3" t="n">
-        <v>86.91898039915891</v>
+        <v>86.91898039915823</v>
       </c>
       <c r="R3" t="n">
-        <v>42.27683777248811</v>
+        <v>42.27683777248777</v>
       </c>
       <c r="S3" t="n">
-        <v>12.64781067861592</v>
+        <v>12.64781067861582</v>
       </c>
       <c r="T3" t="n">
-        <v>2.744589849739795</v>
+        <v>2.744589849739774</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04479744042012727</v>
+        <v>0.04479744042012692</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5708613719111297</v>
+        <v>0.5708613719111252</v>
       </c>
       <c r="H4" t="n">
-        <v>5.075476561173502</v>
+        <v>5.075476561173462</v>
       </c>
       <c r="I4" t="n">
-        <v>17.16735834801834</v>
+        <v>17.16735834801821</v>
       </c>
       <c r="J4" t="n">
-        <v>40.35989899411687</v>
+        <v>40.35989899411656</v>
       </c>
       <c r="K4" t="n">
-        <v>66.32371211840216</v>
+        <v>66.32371211840163</v>
       </c>
       <c r="L4" t="n">
-        <v>84.87151705667834</v>
+        <v>84.87151705667767</v>
       </c>
       <c r="M4" t="n">
-        <v>89.48511487148735</v>
+        <v>89.48511487148664</v>
       </c>
       <c r="N4" t="n">
-        <v>87.35735884890958</v>
+        <v>87.35735884890889</v>
       </c>
       <c r="O4" t="n">
-        <v>80.68866009522044</v>
+        <v>80.6886600952198</v>
       </c>
       <c r="P4" t="n">
-        <v>69.04308810823333</v>
+        <v>69.04308810823279</v>
       </c>
       <c r="Q4" t="n">
-        <v>47.80185542430379</v>
+        <v>47.80185542430341</v>
       </c>
       <c r="R4" t="n">
-        <v>25.66800314065861</v>
+        <v>25.66800314065841</v>
       </c>
       <c r="S4" t="n">
-        <v>9.948556817760322</v>
+        <v>9.948556817760243</v>
       </c>
       <c r="T4" t="n">
-        <v>2.43913495271119</v>
+        <v>2.439134952711171</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03113789301333439</v>
+        <v>0.03113789301333414</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32312,7 +32312,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33755,7 +33755,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>96.06422794895178</v>
+        <v>96.06422794895091</v>
       </c>
       <c r="K2" t="n">
-        <v>265.9398243483555</v>
+        <v>265.9398243483543</v>
       </c>
       <c r="L2" t="n">
-        <v>382.7265423970846</v>
+        <v>382.726542397083</v>
       </c>
       <c r="M2" t="n">
-        <v>442.6313102831386</v>
+        <v>442.6313102831368</v>
       </c>
       <c r="N2" t="n">
-        <v>435.0137521394862</v>
+        <v>435.0137521394844</v>
       </c>
       <c r="O2" t="n">
-        <v>365.1270719907918</v>
+        <v>365.1270719907901</v>
       </c>
       <c r="P2" t="n">
-        <v>273.5725762009424</v>
+        <v>273.572576200941</v>
       </c>
       <c r="Q2" t="n">
-        <v>127.4398339799385</v>
+        <v>127.4398339799374</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63.5855196130729</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>236.577622301408</v>
+        <v>236.5776223014071</v>
       </c>
       <c r="L3" t="n">
-        <v>380.132451390145</v>
+        <v>380.1324513901438</v>
       </c>
       <c r="M3" t="n">
-        <v>298.3192115532804</v>
+        <v>361.9047311663485</v>
       </c>
       <c r="N3" t="n">
-        <v>525.0968902250953</v>
+        <v>525.0968902250939</v>
       </c>
       <c r="O3" t="n">
-        <v>413.2745248636613</v>
+        <v>413.27452486366</v>
       </c>
       <c r="P3" t="n">
-        <v>314.5144252930403</v>
+        <v>314.5144252930393</v>
       </c>
       <c r="Q3" t="n">
-        <v>157.0144940489865</v>
+        <v>157.0144940489858</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>44.0542202925193</v>
+        <v>44.05422029251878</v>
       </c>
       <c r="L4" t="n">
-        <v>112.4615423169945</v>
+        <v>112.4615423169938</v>
       </c>
       <c r="M4" t="n">
-        <v>129.0689918333279</v>
+        <v>129.0689918333272</v>
       </c>
       <c r="N4" t="n">
-        <v>131.4895312281382</v>
+        <v>131.4895312281375</v>
       </c>
       <c r="O4" t="n">
-        <v>105.2737880092601</v>
+        <v>105.2737880092595</v>
       </c>
       <c r="P4" t="n">
-        <v>66.32164737312682</v>
+        <v>66.32164737312628</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35021,16 +35021,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,10 +35261,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
         <v>661.3366991265652</v>
@@ -35425,10 +35425,10 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>645.216555700217</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>328.1522591124908</v>
       </c>
       <c r="R11" t="n">
         <v>59.61319854222478</v>
@@ -35580,7 +35580,7 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226386</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>852.7555845359029</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35817,7 +35817,7 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226382</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
@@ -35884,13 +35884,13 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>556.5257492814169</v>
       </c>
       <c r="L17" t="n">
-        <v>800.2926980400159</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306618</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
         <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.85694616754</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226397</v>
@@ -36060,7 +36060,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789361</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,25 +36121,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>800.2926980400159</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>727.3874636142359</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,25 +36358,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>556.5257492814171</v>
       </c>
       <c r="L23" t="n">
-        <v>800.2926980400159</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306618</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M25" t="n">
         <v>347.6333793934838</v>
@@ -36531,10 +36531,10 @@
         <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>529.3765951325355</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>837.3527180119112</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36765,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,19 +36832,19 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>727.3874636142355</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
         <v>206.0476595443196</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>314.8703818849939</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
@@ -37084,13 +37084,13 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>89.23202080014572</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37306,28 +37306,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>631.8941427267653</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>406.4345031902902</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37403,7 +37403,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.07383289911211</v>
+        <v>81.07383289911203</v>
       </c>
       <c r="K37" t="n">
-        <v>241.5430758303655</v>
+        <v>241.5430758303654</v>
       </c>
       <c r="L37" t="n">
-        <v>355.252788456244</v>
+        <v>355.2527884562439</v>
       </c>
       <c r="M37" t="n">
         <v>383.1287956795297</v>
       </c>
       <c r="N37" t="n">
-        <v>380.352362453586</v>
+        <v>380.3523624535859</v>
       </c>
       <c r="O37" t="n">
-        <v>337.8485465086857</v>
+        <v>337.8485465086856</v>
       </c>
       <c r="P37" t="n">
         <v>270.4524874311563</v>
@@ -37546,22 +37546,22 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>740.7574516112168</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>405.8673569575213</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
         <v>59.61319854222478</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.07383289911201</v>
+        <v>81.07383289911206</v>
       </c>
       <c r="K40" t="n">
         <v>241.5430758303654</v>
       </c>
       <c r="L40" t="n">
-        <v>355.2527884562439</v>
+        <v>355.252788456244</v>
       </c>
       <c r="M40" t="n">
-        <v>383.1287956795296</v>
+        <v>383.1287956795297</v>
       </c>
       <c r="N40" t="n">
         <v>380.3523624535859</v>
@@ -37716,7 +37716,7 @@
         <v>337.8485465086856</v>
       </c>
       <c r="P40" t="n">
-        <v>270.4524874311562</v>
+        <v>270.4524874311563</v>
       </c>
       <c r="Q40" t="n">
         <v>113.8896548239395</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>317.0046665372369</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
@@ -37792,16 +37792,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>544.3268643614025</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597712</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.07383289911199</v>
+        <v>81.07383289911211</v>
       </c>
       <c r="K43" t="n">
-        <v>241.5430758303654</v>
+        <v>241.5430758303655</v>
       </c>
       <c r="L43" t="n">
-        <v>355.2527884562439</v>
+        <v>355.252788456244</v>
       </c>
       <c r="M43" t="n">
-        <v>383.1287956795296</v>
+        <v>383.1287956795297</v>
       </c>
       <c r="N43" t="n">
-        <v>380.3523624535858</v>
+        <v>380.352362453586</v>
       </c>
       <c r="O43" t="n">
-        <v>337.8485465086856</v>
+        <v>337.8485465086857</v>
       </c>
       <c r="P43" t="n">
-        <v>270.4524874311562</v>
+        <v>270.4524874311563</v>
       </c>
       <c r="Q43" t="n">
-        <v>113.8896548239394</v>
+        <v>113.8896548239395</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,10 +38014,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923322</v>
@@ -38029,16 +38029,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>442.7283902452261</v>
+        <v>264.5701238917501</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597712</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.07383289911213</v>
+        <v>81.07383289911211</v>
       </c>
       <c r="K46" t="n">
         <v>241.5430758303655</v>
@@ -38193,7 +38193,7 @@
         <v>270.4524874311563</v>
       </c>
       <c r="Q46" t="n">
-        <v>113.8896548239396</v>
+        <v>113.8896548239395</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
